--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5FC07A-5408-4819-A0CF-DF13639FD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8105E2-2F62-4A5C-9AD2-2CDB74B5DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="945" windowWidth="16455" windowHeight="11385" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="15" yWindow="600" windowWidth="16455" windowHeight="11385" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>Создать ресурс для получения нужных данных из SomeName</t>
+  </si>
+  <si>
+    <t>php artisan make:seeder SomeNameSeeder</t>
+  </si>
+  <si>
+    <t>Создать Seeder - для заполнения БД</t>
+  </si>
+  <si>
+    <t>php artisan db:seed --class=SomeNameSeeder</t>
+  </si>
+  <si>
+    <t>Вімолнить Seeder</t>
+  </si>
+  <si>
+    <t>php artisan migrate:rollback</t>
+  </si>
+  <si>
+    <t>Отменить только последнюю миграцию</t>
+  </si>
+  <si>
+    <t>php artisan migrate:rollback --step=2</t>
+  </si>
+  <si>
+    <t>Пошагово откатывать несколько миграций</t>
+  </si>
+  <si>
+    <t>php artisan --version</t>
+  </si>
+  <si>
+    <t>версия Laravel</t>
+  </si>
+  <si>
+    <t>php artisan route:list</t>
+  </si>
+  <si>
+    <t>Список всех маршрутов</t>
+  </si>
+  <si>
+    <t>php artisan make:migration add_language_code_to_users_table --table=users</t>
+  </si>
+  <si>
+    <t>Создание новй миграции</t>
   </si>
 </sst>
 </file>
@@ -422,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,34 +486,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8105E2-2F62-4A5C-9AD2-2CDB74B5DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE4BCB5-E446-407D-BFCA-91AFA39A02CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="600" windowWidth="16455" windowHeight="11385" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>php artisan db:seed --class=SomeNameSeeder</t>
   </si>
   <si>
-    <t>Вімолнить Seeder</t>
-  </si>
-  <si>
     <t>php artisan migrate:rollback</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Создание новй миграции</t>
+  </si>
+  <si>
+    <t>Выполнить Seeder</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +486,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,18 +502,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,23 +553,23 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE4BCB5-E446-407D-BFCA-91AFA39A02CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EFC5AA-75AA-45BA-9233-22116BCF13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EFC5AA-75AA-45BA-9233-22116BCF13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB2318-5832-4CBC-8ACC-BCFA46522A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Выполнить Seeder</t>
+  </si>
+  <si>
+    <t>php artisan l5-swagger:generate</t>
+  </si>
+  <si>
+    <t>Перегенерировать даные swagger</t>
+  </si>
+  <si>
+    <t>php artisan config:clear &amp;&amp; php artisan cache:clear &amp;&amp; php artisan route:clear &amp;&amp; php artisan view:clear</t>
+  </si>
+  <si>
+    <t>Очистка параметров</t>
   </si>
 </sst>
 </file>
@@ -464,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,9 +578,25 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB2318-5832-4CBC-8ACC-BCFA46522A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC33E068-C702-4D03-A7EB-6DD768B37A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="15" yWindow="600" windowWidth="26115" windowHeight="12900" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Очистка параметров</t>
+  </si>
+  <si>
+    <t>php artisan make:controller Api/v1/SomeNameController --resource</t>
+  </si>
+  <si>
+    <t>Создать Resource-контроллер (обычный web) для SomeName</t>
+  </si>
+  <si>
+    <t>Создать контроллер для SomeName и связать с моделью, ресурсом и запросом</t>
+  </si>
+  <si>
+    <t>php artisan make:controller Api/v1/SomeNameController --model=PetBreed --resource --requests</t>
   </si>
 </sst>
 </file>
@@ -476,16 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,73 +542,89 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC33E068-C702-4D03-A7EB-6DD768B37A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F42126-672A-4D64-9D84-2F4DECAC8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="600" windowWidth="26115" windowHeight="12900" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
     <sheet name="Route" sheetId="2" r:id="rId2"/>
+    <sheet name="docker" sheetId="3" r:id="rId3"/>
+    <sheet name="aws" sheetId="4" r:id="rId4"/>
+    <sheet name="AWS-web" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -130,16 +133,239 @@
   </si>
   <si>
     <t>php artisan make:controller Api/v1/SomeNameController --model=PetBreed --resource --requests</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - остановить композер</t>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - поднять заново композер</t>
+  </si>
+  <si>
+    <t>docker exec -it laravel_web mc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - зайти в докер laravel_web, через mc</t>
+  </si>
+  <si>
+    <t>docker-compose start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - повторный запуск композера</t>
+  </si>
+  <si>
+    <t>docker-compose restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - перезапуск композера</t>
+  </si>
+  <si>
+    <t>docker push alex0no/laravel-php:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - сохранить образ в репозиторий</t>
+  </si>
+  <si>
+    <t>docker commit 0e964680c580 alex0no/laravel-php:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - зафиксировать изменения образа</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - список всех образов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - список запущенных образов</t>
+  </si>
+  <si>
+    <t>docker build -t alex0no/laravel-nginx:latest</t>
+  </si>
+  <si>
+    <t>aws ecs list-clusters</t>
+  </si>
+  <si>
+    <t>aws ecs list-services --cluster laravel-cluster</t>
+  </si>
+  <si>
+    <t>aws ecs list-task-definitions</t>
+  </si>
+  <si>
+    <t>aws ecs describe-task-definition --task-definition laravel-task:1 --query "taskDefinition.{TaskRole:taskRoleArn, ExecutionRole:executionRoleArn}"</t>
+  </si>
+  <si>
+    <t>aws ecs describe-clusters --clusters laravel-cluster --query "clusters[0].roleArn"</t>
+  </si>
+  <si>
+    <t>aws iam list-attached-role-policies --role-name ecsTaskExecutionRole</t>
+  </si>
+  <si>
+    <t>aws iam list-attached-role-policies --role-name ecsTaskRole</t>
+  </si>
+  <si>
+    <t>aws iam get-policy-version --policy-arn arn:aws:iam::739355968698:policy/&lt;policy-name&gt; --version-id v1</t>
+  </si>
+  <si>
+    <t>aws ecs describe-tasks --cluster laravel-cluster --tasks fa73b835a50849869083186984adad15 --query "tasks[].attachments[].details[?name=='privateIPv4Address'].value" --output text</t>
+  </si>
+  <si>
+    <t>aws ecs describe-tasks --cluster laravel-cluster --tasks fa73b835a50849869083186984adad15 --query "tasks[].containerInstanceArn" --output text</t>
+  </si>
+  <si>
+    <t>aws ecs list-tasks --cluster laravel-cluster</t>
+  </si>
+  <si>
+    <t>aws ecs describe-services --cluster laravel-cluster --services laravel_web</t>
+  </si>
+  <si>
+    <t>aws ecs describe-task-definition --task-definition laravel-web-task</t>
+  </si>
+  <si>
+    <t>aws ecs update-service --cluster laravel-cluster --service laravel_web --force-new-deployment</t>
+  </si>
+  <si>
+    <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/d66529b8423845a6803d4393658b9422 --container laravel_app --interactive --command "mc -a"</t>
+  </si>
+  <si>
+    <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/61739aea314f44c386d7f6272d07e8eb --container laravel_web --interactive --command "mc -a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aws ecs list-tasks --cluster laravel-cluster --family laravel_app </t>
+  </si>
+  <si>
+    <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/61739aea314f44c386d7f6272d07e8eb --container laravel_web --interactive --command "/bin/sh"</t>
+  </si>
+  <si>
+    <t>Как увидеть список тасков и контейнеров в веб-интерфейсе AWS?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1️⃣ Перейди в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS Management Console</t>
+    </r>
+  </si>
+  <si>
+    <t>👉 ECS Console</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2️⃣ Выбери кластер </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>laravel-cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3️⃣ Перейди во вкладку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → ты увидишь список тасков.</t>
+    </r>
+  </si>
+  <si>
+    <t>4️⃣ Кликни на любой таск → там будет список контейнеров и их статусы.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -163,10 +389,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -174,8 +401,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,17 +722,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -516,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -524,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -532,7 +764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -540,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -548,7 +780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -556,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -564,7 +796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -572,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -580,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -588,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -596,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -604,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -612,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -620,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -639,13 +871,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -656,4 +888,254 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC746-A7F3-4EAE-BABA-455FEBF75DA3}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8E9AE-9E80-45F8-A1A2-10BC5E5B9472}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAAB748-5A86-4798-B867-CAD18E01C6EE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://console.aws.amazon.com/ecs" xr:uid="{BD54D200-2CF2-4065-914A-D14D8E32EB27}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F42126-672A-4D64-9D84-2F4DECAC8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D66A55-D489-4AB9-ADAA-377D3D8057C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>4️⃣ Кликни на любой таск → там будет список контейнеров и их статусы.</t>
+  </si>
+  <si>
+    <t>php artisan make:mail MyTestMail</t>
+  </si>
+  <si>
+    <t>Создать Mailable</t>
   </si>
 </sst>
 </file>
@@ -722,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,6 +832,16 @@
       </c>
       <c r="B12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1095,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAAB748-5A86-4798-B867-CAD18E01C6EE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D66A55-D489-4AB9-ADAA-377D3D8057C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A4C96-3CFB-419D-8AB9-CCC0E9CAD422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="7215" yWindow="600" windowWidth="21600" windowHeight="15600" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -329,6 +329,40 @@
   </si>
   <si>
     <t>Создать Mailable</t>
+  </si>
+  <si>
+    <t>php artisan make:class Helpers/MessageHelper</t>
+  </si>
+  <si>
+    <t>Создать произвольный класс</t>
+  </si>
+  <si>
+    <t>php artisan make:middleware EnsureEmailIsVerified</t>
+  </si>
+  <si>
+    <t>Создать Middleware</t>
+  </si>
+  <si>
+    <t>Route::middleware([
+    'auth:sanctum', 'email.verified'
+])-&gt;get('/dashboard', fn() =&gt; ...);</t>
+  </si>
+  <si>
+    <t>public function handle($request, Closure $next)
+{
+    if (auth()-&gt;check() &amp;&amp; is_null(auth()-&gt;user()-&gt;email_verified_at)) {
+        return response()-&gt;json(['message' =&gt; 'Пожалуйста, подтвердите ваш email.'], 403);
+    }
+    return $next($request);
+}</t>
+  </si>
+  <si>
+    <t>Не забудь зарегистрировать middleware в app/Http/Kernel.php:
+'email.verified' =&gt; \App\Http\Middleware\EnsureEmailIsVerified::class,
+И повесить его в routes/api.php на нужные роуты</t>
+  </si>
+  <si>
+    <t>php artisan vendor:publish --tag=config</t>
   </si>
 </sst>
 </file>
@@ -399,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -411,6 +445,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -726,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,43 +876,62 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -883,22 +942,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3ECA65-2271-4A9C-80F0-B381D730B94A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="45">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="150">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A4C96-3CFB-419D-8AB9-CCC0E9CAD422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B8A11-122C-4C0D-9285-4BDC9073FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="600" windowWidth="21600" windowHeight="15600" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="7200" yWindow="840" windowWidth="21600" windowHeight="15360" activeTab="2" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>php artisan vendor:publish --tag=config</t>
+  </si>
+  <si>
+    <t>docker-compose up -d --build</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -981,10 +984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC746-A7F3-4EAE-BABA-455FEBF75DA3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1038,35 +1041,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
     </row>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B8A11-122C-4C0D-9285-4BDC9073FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742AC51-E1BD-4184-BCD4-42D1ABAFE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="840" windowWidth="21600" windowHeight="15360" activeTab="2" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="5100" yWindow="630" windowWidth="21600" windowHeight="15450" activeTab="4" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
     <sheet name="Route" sheetId="2" r:id="rId2"/>
     <sheet name="docker" sheetId="3" r:id="rId3"/>
     <sheet name="aws" sheetId="4" r:id="rId4"/>
-    <sheet name="AWS-web" sheetId="5" r:id="rId5"/>
+    <sheet name="Linux" sheetId="6" r:id="rId5"/>
+    <sheet name="AWS-web" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -366,6 +367,62 @@
   </si>
   <si>
     <t>docker-compose up -d --build</t>
+  </si>
+  <si>
+    <t>chmod -R a+w .</t>
+  </si>
+  <si>
+    <t>find . -type f -exec chmod a+w {} +</t>
+  </si>
+  <si>
+    <t>find . -type d -exec chmod a+w {} +</t>
+  </si>
+  <si>
+    <t>Добавить права на запись всем рекурсивно</t>
+  </si>
+  <si>
+    <t>Добавить права на запись ко всем файлам</t>
+  </si>
+  <si>
+    <t>Добавить права на запись ко всем папкам</t>
+  </si>
+  <si>
+    <t>cat filename.txt</t>
+  </si>
+  <si>
+    <t>– просто выводит весь файл:</t>
+  </si>
+  <si>
+    <t>– позволяет прокручивать файл постранично</t>
+  </si>
+  <si>
+    <t>less filename.txt</t>
+  </si>
+  <si>
+    <t>– тоже постраничный просмотр, но чуть проще</t>
+  </si>
+  <si>
+    <t>more filename.txt</t>
+  </si>
+  <si>
+    <t>– выводит первые 10 (или больше) строк</t>
+  </si>
+  <si>
+    <t>– выводит последние 10 (или больше) строк</t>
+  </si>
+  <si>
+    <t>head filename.txt
+head -n 20 filename.txt</t>
+  </si>
+  <si>
+    <t>tail filename.txt
+tail -n 20 filename.txt</t>
+  </si>
+  <si>
+    <t>curl -I http://laravel.loc/favicon.ico</t>
+  </si>
+  <si>
+    <t>Посмотреть заголовки запроса</t>
   </si>
 </sst>
 </file>
@@ -436,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -453,6 +510,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC746-A7F3-4EAE-BABA-455FEBF75DA3}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -1189,16 +1252,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5BE00-671B-41FB-AC5A-C9623BF95D51}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAAB748-5A86-4798-B867-CAD18E01C6EE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742AC51-E1BD-4184-BCD4-42D1ABAFE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401D3ED-CA8F-47EC-8D6F-B3C4481C4EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="630" windowWidth="21600" windowHeight="15450" activeTab="4" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="5880" yWindow="720" windowWidth="21255" windowHeight="15450" activeTab="6" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="aws" sheetId="4" r:id="rId4"/>
     <sheet name="Linux" sheetId="6" r:id="rId5"/>
     <sheet name="AWS-web" sheetId="5" r:id="rId6"/>
+    <sheet name="AWS-local" sheetId="7" r:id="rId7"/>
+    <sheet name="AWS-tmp" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -424,12 +426,191 @@
   <si>
     <t>Посмотреть заголовки запроса</t>
   </si>
+  <si>
+    <t>php artisan route:clear</t>
+  </si>
+  <si>
+    <t>php artisan config:clear</t>
+  </si>
+  <si>
+    <t>Очистить конфиг</t>
+  </si>
+  <si>
+    <t>Очистить список маршрутов</t>
+  </si>
+  <si>
+    <t>php artisan serve</t>
+  </si>
+  <si>
+    <t>Перезапуск php</t>
+  </si>
+  <si>
+    <t>php artisan config:cache</t>
+  </si>
+  <si>
+    <t>Закешировать новый конфиг</t>
+  </si>
+  <si>
+    <t>cd /var/www</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/alex-no/Lavarel-test.git</t>
+  </si>
+  <si>
+    <t>git config core.sparseCheckout true</t>
+  </si>
+  <si>
+    <t>echo "www_app/*" &gt;&gt; .git/info/sparse-checkout</t>
+  </si>
+  <si>
+    <t>git pull origin main</t>
+  </si>
+  <si>
+    <t>cd /var/www/www_app</t>
+  </si>
+  <si>
+    <t>shopt -s dotglob</t>
+  </si>
+  <si>
+    <t>mv -- * ../</t>
+  </si>
+  <si>
+    <t>shopt -u dotglob</t>
+  </si>
+  <si>
+    <t>cd ..</t>
+  </si>
+  <si>
+    <t>git sparse-checkout reapply</t>
+  </si>
+  <si>
+    <t>61739aea314f44c386d7f6272d07e8eb</t>
+  </si>
+  <si>
+    <t>d574d6d38c6c4248ae88e9ac19ced189</t>
+  </si>
+  <si>
+    <t>Public IP</t>
+  </si>
+  <si>
+    <t>Private IP</t>
+  </si>
+  <si>
+    <t>3.70.248.104</t>
+  </si>
+  <si>
+    <t>172.31.31.51</t>
+  </si>
+  <si>
+    <t>open address</t>
+  </si>
+  <si>
+    <t>Task definition: revision</t>
+  </si>
+  <si>
+    <t>laravel_web:4</t>
+  </si>
+  <si>
+    <t>http://3.70.248.104/</t>
+  </si>
+  <si>
+    <t>http://63.177.236.42/</t>
+  </si>
+  <si>
+    <t>63.177.236.42</t>
+  </si>
+  <si>
+    <t>172.31.29.174</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/d574d6d38c6c4248ae88e9ac19ced189 --container laravel_web --interactive --command "mc -a"</t>
+  </si>
+  <si>
+    <t>server {
+    listen 80;
+    server_name laravel.loc;
+    root /var/www/public;
+    index index.php index.html index.htm;
+    location / {
+        try_files $uri $uri/ /index.php?$query_string;
+    }
+    location ~ \.php$ {
+        include fastcgi_params;
+        fastcgi_pass laravel-app.laravel.local:9000;
+        fastcgi_index index.php;
+        fastcgi_param SCRIPT_FILENAME $document_root$fastcgi_script_name;
+    }
+    location ~ /\.ht {
+        deny all;
+    }
+}</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>4e6d8f12d898441bb0860b6ba08486e9</t>
+  </si>
+  <si>
+    <t>laravel_app</t>
+  </si>
+  <si>
+    <t>laravel_web</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>172.31.22.35</t>
+  </si>
+  <si>
+    <t>18.199.143.62</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/4e6d8f12d898441bb0860b6ba08486e9 --container laravel_app --interactive --command "mc -a" --region eu-central-1</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>169.254.172.2</t>
+  </si>
+  <si>
+    <t>laravel-app.laravel.local</t>
+  </si>
+  <si>
+    <t>laravel-web.laravel.local</t>
+  </si>
+  <si>
+    <t>laravel_app:3</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>apt install iputils-ping -y</t>
+  </si>
+  <si>
+    <t>apt update</t>
+  </si>
+  <si>
+    <t>apt install net-tools -y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +652,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -515,6 +730,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -832,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,27 +1204,59 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1255,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5BE00-671B-41FB-AC5A-C9623BF95D51}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1390,4 +1649,248 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250BB90F-3D83-4758-9F49-1C02BE23495D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="57.140625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="B2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
+      <c r="A10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="345">
+      <c r="A11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401D3ED-CA8F-47EC-8D6F-B3C4481C4EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676C992-2A54-4509-8E8D-154E34367CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="720" windowWidth="21255" windowHeight="15450" activeTab="6" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -487,9 +487,6 @@
     <t>git sparse-checkout reapply</t>
   </si>
   <si>
-    <t>61739aea314f44c386d7f6272d07e8eb</t>
-  </si>
-  <si>
     <t>d574d6d38c6c4248ae88e9ac19ced189</t>
   </si>
   <si>
@@ -515,15 +512,6 @@
   </si>
   <si>
     <t>http://3.70.248.104/</t>
-  </si>
-  <si>
-    <t>http://63.177.236.42/</t>
-  </si>
-  <si>
-    <t>63.177.236.42</t>
-  </si>
-  <si>
-    <t>172.31.29.174</t>
   </si>
   <si>
     <t>aws</t>
@@ -573,9 +561,6 @@
     <t>18.199.143.62</t>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
     <t>aws ecs execute-command --cluster laravel-cluster --task arn:aws:ecs:eu-central-1:739355968698:task/laravel-cluster/4e6d8f12d898441bb0860b6ba08486e9 --container laravel_app --interactive --command "mc -a" --region eu-central-1</t>
   </si>
   <si>
@@ -604,13 +589,31 @@
   </si>
   <si>
     <t>apt install net-tools -y</t>
+  </si>
+  <si>
+    <t>composer update</t>
+  </si>
+  <si>
+    <t>nginx -s reload</t>
+  </si>
+  <si>
+    <t>git sparse-checkout init --cone</t>
+  </si>
+  <si>
+    <t>git sparse-checkout set www_app/public</t>
+  </si>
+  <si>
+    <t>mkdir -p /home/alex/git-content</t>
+  </si>
+  <si>
+    <t>cd /home/alex/git-content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +689,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -708,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,17 +744,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,7 +1075,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1653,90 +1666,131 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>157</v>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1746,150 +1800,124 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250BB90F-3D83-4758-9F49-1C02BE23495D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="57.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="57.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="B2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="B2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75">
+      <c r="A10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="345">
+      <c r="A11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75">
-      <c r="A10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="345">
-      <c r="A11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676C992-2A54-4509-8E8D-154E34367CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D7AEF-EA85-43D8-9A7E-A3889CCEA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="720" windowWidth="21255" windowHeight="15450" activeTab="6" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="2340" yWindow="750" windowWidth="14370" windowHeight="15450" activeTab="2" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC746-A7F3-4EAE-BABA-455FEBF75DA3}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D7AEF-EA85-43D8-9A7E-A3889CCEA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FDE57-850E-4F3E-A0C0-CA7B94A13098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="750" windowWidth="14370" windowHeight="15450" activeTab="2" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>cd /home/alex/git-content</t>
+  </si>
+  <si>
+    <t>chmod -R a+w /var/www/storage</t>
+  </si>
+  <si>
+    <t>apt install mariadb-client</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7EC746-A7F3-4EAE-BABA-455FEBF75DA3}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1423,7 +1429,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1666,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,6 +1797,21 @@
     <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3FDE57-850E-4F3E-A0C0-CA7B94A13098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092238A1-4438-4A31-93C4-17D7ED13A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="3120" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092238A1-4438-4A31-93C4-17D7ED13A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE5909-C859-47D2-A8EF-A41EFD3A37A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="1350" windowWidth="23025" windowHeight="14850" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7177AF9-87D2-4AE6-9FD2-A06D3FADC8D2}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/doc/CribsLaravel.xlsx
+++ b/doc/CribsLaravel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Laravel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE5909-C859-47D2-A8EF-A41EFD3A37A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB418142-7B8D-4FBF-B88D-9DD4CBE8233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="1350" windowWidth="23025" windowHeight="14850" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
+    <workbookView xWindow="13350" yWindow="1290" windowWidth="13080" windowHeight="13335" activeTab="8" xr2:uid="{976BC84D-5225-4B57-8FA8-4DF0F591E144}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="AWS-web" sheetId="5" r:id="rId6"/>
     <sheet name="AWS-local" sheetId="7" r:id="rId7"/>
     <sheet name="AWS-tmp" sheetId="8" r:id="rId8"/>
+    <sheet name="Headers" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="203">
   <si>
     <t>php artisan make:model SomeName -mf</t>
   </si>
@@ -614,12 +615,139 @@
   <si>
     <t>apt install mariadb-client</t>
   </si>
+  <si>
+    <t>php artisan serve --host=127.0.0.1 --port=8000</t>
+  </si>
+  <si>
+    <t>Запусвтить php web-свервер</t>
+  </si>
+  <si>
+    <t>curl -i -H "Accept: application/json" http://127.0.0.1/api/development-plan</t>
+  </si>
+  <si>
+    <t>Заголовки от клиента к серверу (запрос)</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json</t>
+  </si>
+  <si>
+    <t>Указывает, что тело запроса содержит JSON-данные.</t>
+  </si>
+  <si>
+    <t>Accept: application/json</t>
+  </si>
+  <si>
+    <t>Клиент ожидает получить ответ в формате JSON.</t>
+  </si>
+  <si>
+    <t>Authorization: Bearer &lt;token&gt;</t>
+  </si>
+  <si>
+    <t>Токен авторизации (если API требует).</t>
+  </si>
+  <si>
+    <t>User-Agent: &lt;название клиента&gt;</t>
+  </si>
+  <si>
+    <t>Информация о клиентском приложении.</t>
+  </si>
+  <si>
+    <t>Accept-Language: ru-RU, en-US;q=0.8</t>
+  </si>
+  <si>
+    <t>Предпочтения клиента по языку (если поддерживается).</t>
+  </si>
+  <si>
+    <t>X-Request-ID: &lt;уникальный UUID&gt;</t>
+  </si>
+  <si>
+    <t>Уникальный ID запроса (для логирования/отладки).</t>
+  </si>
+  <si>
+    <t>X-API-KEY: &lt;ключ&gt;</t>
+  </si>
+  <si>
+    <t>Альтернативный метод авторизации через API-ключ.</t>
+  </si>
+  <si>
+    <t>Заголовки от сервера к клиенту (ответ)</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>Указывает, что тело ответа содержит JSON.</t>
+  </si>
+  <si>
+    <t>Cache-Control: no-cache, no-store, must-revalidate</t>
+  </si>
+  <si>
+    <t>Отключает кэширование (или настраивает его).</t>
+  </si>
+  <si>
+    <t>ETag: &lt;значение&gt;</t>
+  </si>
+  <si>
+    <t>Хэш контента для поддержки кэширования.</t>
+  </si>
+  <si>
+    <t>Last-Modified: &lt;дата&gt;</t>
+  </si>
+  <si>
+    <t>Дата последнего изменения ресурса.</t>
+  </si>
+  <si>
+    <t>Отражает ID запроса (если был передан клиентом).</t>
+  </si>
+  <si>
+    <t>Access-Control-Allow-Origin: *</t>
+  </si>
+  <si>
+    <t>Заголовок CORS (для кросс-доменных запросов).</t>
+  </si>
+  <si>
+    <t>WWW-Authenticate: Bearer</t>
+  </si>
+  <si>
+    <t>Используется при 401 Unauthorized, если нужна авторизация.</t>
+  </si>
+  <si>
+    <t>Retry-After: 120</t>
+  </si>
+  <si>
+    <t>Подсказка клиенту, когда можно повторить запрос (например, после 429 или 503).</t>
+  </si>
+  <si>
+    <t>Пример запроса (curl):</t>
+  </si>
+  <si>
+    <t>Пример ответа (заголовки):</t>
+  </si>
+  <si>
+    <t>curl -X POST https://api.example.com/data \
+  -H "Content-Type: application/json" \
+  -H "Accept: application/json" \
+  -H "Authorization: Bearer YOUR_ACCESS_TOKEN" \
+  -d '{"name": "Test"}'</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK
+Content-Type: application/json; charset=utf-8
+Cache-Control: no-cache
+X-Request-ID: 123e4567-e89b-12d3-a456-426614174000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +832,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,7 +855,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -721,12 +863,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -762,6 +919,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF17A4-0495-47F5-98E9-C80B52500CD1}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5BE00-671B-41FB-AC5A-C9623BF95D51}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1539,7 +1715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1551,67 +1727,80 @@
         <v>105</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="8" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1942,4 +2131,185 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D19E2-86C6-4FD7-B0FD-6F8E058B736E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="5" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="A1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25">
+      <c r="A13" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="98.25" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>